--- a/biology/Zoologie/Drymomyrmex/Drymomyrmex.xlsx
+++ b/biology/Zoologie/Drymomyrmex/Drymomyrmex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Drymomyrmex est un genre fossile d'insectes hyménoptères fourmis (famille des Formicidae) de la sous-famille des Formicinae.
 </t>
@@ -511,17 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Drymomyrmex est créé en 1915 par l'entomologiste américain William Morton Wheeler (1865-1937) ainsi que les deux premières espèces Drymomyrmex claripennis et Drymomyrmex fuscipennis[1],[2],[3].
-Fossiles
-Selon Paleobiology Database en 2023, le nombre de collections de fossiles référencées est de quatre[2] :
-Rupélien de l'Oligocène inférieur, une collection d'Allemagne, de Kleinkembs, en région du Bade-Wurtemberg, décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[4] ;
-Priabonien de l'Éocène supérieur, deux collections de Russie et une d'Ukraine[2].
-Sous-famille
-Ce genre a été attribué à la tribu des Camponotini en 1915 par William Morton Wheeler[1].
-Puis ce genre a été reclassé dans la famille des Formicidae en 1992 par F.M. Carpenter[5] et suivi en 2012 par le myrmécologue anglais Barry Bolton (1938-)[6].
-Ce genre est désormais classé dans la sous-famille des Formicinae depuis 2016 par P. S. Ward et al.[7], repris en 2021 par A. G. Radchenko[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Drymomyrmex est créé en 1915 par l'entomologiste américain William Morton Wheeler (1865-1937) ainsi que les deux premières espèces Drymomyrmex claripennis et Drymomyrmex fuscipennis.
 </t>
         </is>
       </c>
@@ -547,12 +553,91 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, le nombre de collections de fossiles référencées est de quatre :
+Rupélien de l'Oligocène inférieur, une collection d'Allemagne, de Kleinkembs, en région du Bade-Wurtemberg, décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) ;
+Priabonien de l'Éocène supérieur, deux collections de Russie et une d'Ukraine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Drymomyrmex</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Drymomyrmex</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-famille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été attribué à la tribu des Camponotini en 1915 par William Morton Wheeler.
+Puis ce genre a été reclassé dans la famille des Formicidae en 1992 par F.M. Carpenter et suivi en 2012 par le myrmécologue anglais Barry Bolton (1938-).
+Ce genre est désormais classé dans la sous-famille des Formicinae depuis 2016 par P. S. Ward et al., repris en 2021 par A. G. Radchenko.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Drymomyrmex</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Drymomyrmex</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database en 2023, les espèces fossiles référencées sont au nombre de trois[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, les espèces fossiles référencées sont au nombre de trois.
 †Drymomyrmex claripennis Wheeler, 1915
 †Drymomyrmex fuscipennis Wheeler, 1915
 †Drymomyrmex rasnitsyni Radchenko, 2021
@@ -560,34 +645,40 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Drymomyrmex</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Drymomyrmex</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Affinites
-« Le g. fossile Drymomyrmex serait intermédiaire entre le g. Camponotus et le g. Aphomyrmex. »[4].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Affinites</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Le g. fossile Drymomyrmex serait intermédiaire entre le g. Camponotus et le g. Aphomyrmex. ».
 </t>
         </is>
       </c>
